--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="251">
   <si>
     <t>Domaine</t>
   </si>
@@ -774,6 +774,12 @@
   </si>
   <si>
     <t>Mise en situation et généralité</t>
+  </si>
+  <si>
+    <t>consignes_tp00</t>
+  </si>
+  <si>
+    <t>QCM diagnostique</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2613,17 +2619,28 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="C131" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>7</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5C9DC-08C6-4BE3-9514-E4AA076A6598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="258">
   <si>
     <t>Domaine</t>
   </si>
@@ -780,12 +781,33 @@
   </si>
   <si>
     <t>QCM diagnostique</t>
+  </si>
+  <si>
+    <t>S1_02_StructuresImbriquees</t>
+  </si>
+  <si>
+    <t>05_RechercheDansTableau</t>
+  </si>
+  <si>
+    <t>06_RechercheMotDansTexte</t>
+  </si>
+  <si>
+    <t>07_TriBulles</t>
+  </si>
+  <si>
+    <t>Recherche d'un mot dans un texte</t>
+  </si>
+  <si>
+    <t>Recherche dans un tableau</t>
+  </si>
+  <si>
+    <t>Tri à bulles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -846,6 +868,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1113,14 +1138,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -1130,7 +1155,7 @@
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -1164,7 +1189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -1178,7 +1203,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -1192,7 +1217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -1203,7 +1228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -1214,7 +1239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -1225,7 +1250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -1236,7 +1261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -1247,7 +1272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>233</v>
       </c>
@@ -1258,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>233</v>
       </c>
@@ -1269,7 +1294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -1280,7 +1305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>233</v>
       </c>
@@ -1291,7 +1316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -1305,7 +1330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>233</v>
       </c>
@@ -1319,7 +1344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -1330,7 +1355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>233</v>
       </c>
@@ -1341,7 +1366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>233</v>
       </c>
@@ -1352,7 +1377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -1363,7 +1388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -1374,7 +1399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>233</v>
       </c>
@@ -1385,7 +1410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>233</v>
       </c>
@@ -1396,7 +1421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -1407,7 +1432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>233</v>
       </c>
@@ -1418,7 +1443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>233</v>
       </c>
@@ -1429,7 +1454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -1443,7 +1468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -1454,7 +1479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -1465,7 +1490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>233</v>
       </c>
@@ -1476,7 +1501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -1487,7 +1512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>233</v>
       </c>
@@ -1498,7 +1523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>233</v>
       </c>
@@ -1509,7 +1534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>233</v>
       </c>
@@ -1520,7 +1545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>233</v>
       </c>
@@ -1531,7 +1556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -1545,7 +1570,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>233</v>
       </c>
@@ -1556,7 +1581,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -1567,7 +1592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>233</v>
       </c>
@@ -1578,7 +1603,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>233</v>
       </c>
@@ -1589,7 +1614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -1600,7 +1625,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>233</v>
       </c>
@@ -1611,7 +1636,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -1622,7 +1647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -1633,7 +1658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>233</v>
       </c>
@@ -1647,7 +1672,7 @@
         <v>502.50299999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>233</v>
       </c>
@@ -1658,7 +1683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>233</v>
       </c>
@@ -1672,7 +1697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -1683,7 +1708,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>234</v>
       </c>
@@ -1694,7 +1719,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>234</v>
       </c>
@@ -1705,7 +1730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>234</v>
       </c>
@@ -1716,7 +1741,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>234</v>
       </c>
@@ -1727,7 +1752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>234</v>
       </c>
@@ -1738,7 +1763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>234</v>
       </c>
@@ -1749,7 +1774,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>234</v>
       </c>
@@ -1760,7 +1785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>234</v>
       </c>
@@ -1774,7 +1799,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>234</v>
       </c>
@@ -1788,7 +1813,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -1802,7 +1827,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>234</v>
       </c>
@@ -1816,7 +1841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>234</v>
       </c>
@@ -1827,7 +1852,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -1838,7 +1863,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>235</v>
       </c>
@@ -1849,7 +1874,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>235</v>
       </c>
@@ -1863,7 +1888,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>235</v>
       </c>
@@ -1874,7 +1899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>235</v>
       </c>
@@ -1885,7 +1910,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>235</v>
       </c>
@@ -1896,7 +1921,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>235</v>
       </c>
@@ -1907,7 +1932,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>235</v>
       </c>
@@ -1921,7 +1946,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>235</v>
       </c>
@@ -1935,7 +1960,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -1946,7 +1971,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>232</v>
       </c>
@@ -1957,7 +1982,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>232</v>
       </c>
@@ -1968,7 +1993,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>238</v>
       </c>
@@ -1979,7 +2004,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>238</v>
       </c>
@@ -1990,7 +2015,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -2001,7 +2026,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>238</v>
       </c>
@@ -2012,7 +2037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -2023,7 +2048,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>239</v>
       </c>
@@ -2034,7 +2059,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -2045,7 +2070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -2056,7 +2081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -2067,7 +2092,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -2078,7 +2103,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>237</v>
       </c>
@@ -2089,7 +2114,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>237</v>
       </c>
@@ -2100,7 +2125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>237</v>
       </c>
@@ -2111,7 +2136,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>237</v>
       </c>
@@ -2122,7 +2147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>237</v>
       </c>
@@ -2133,7 +2158,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>236</v>
       </c>
@@ -2144,7 +2169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>236</v>
       </c>
@@ -2155,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>236</v>
       </c>
@@ -2166,7 +2191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>236</v>
       </c>
@@ -2177,7 +2202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>236</v>
       </c>
@@ -2188,7 +2213,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>242</v>
       </c>
@@ -2199,7 +2224,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>242</v>
       </c>
@@ -2210,7 +2235,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>241</v>
       </c>
@@ -2221,7 +2246,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>241</v>
       </c>
@@ -2232,7 +2257,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>241</v>
       </c>
@@ -2243,7 +2268,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>241</v>
       </c>
@@ -2254,7 +2279,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>241</v>
       </c>
@@ -2265,7 +2290,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>241</v>
       </c>
@@ -2276,7 +2301,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>240</v>
       </c>
@@ -2287,7 +2312,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>240</v>
       </c>
@@ -2298,7 +2323,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>240</v>
       </c>
@@ -2309,7 +2334,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>240</v>
       </c>
@@ -2320,7 +2345,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>240</v>
       </c>
@@ -2331,7 +2356,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>240</v>
       </c>
@@ -2342,7 +2367,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>243</v>
       </c>
@@ -2353,7 +2378,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>243</v>
       </c>
@@ -2364,7 +2389,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>243</v>
       </c>
@@ -2375,7 +2400,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>243</v>
       </c>
@@ -2386,7 +2411,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>243</v>
       </c>
@@ -2397,7 +2422,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>243</v>
       </c>
@@ -2408,7 +2433,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>244</v>
       </c>
@@ -2419,7 +2444,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>244</v>
       </c>
@@ -2430,7 +2455,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -2441,7 +2466,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>244</v>
       </c>
@@ -2452,7 +2477,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -2463,7 +2488,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>244</v>
       </c>
@@ -2474,7 +2499,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>244</v>
       </c>
@@ -2485,7 +2510,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -2496,7 +2521,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>245</v>
       </c>
@@ -2507,7 +2532,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>245</v>
       </c>
@@ -2518,7 +2543,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -2529,7 +2554,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -2540,7 +2565,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -2551,7 +2576,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>48</v>
       </c>
@@ -2562,7 +2587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>48</v>
       </c>
@@ -2573,7 +2598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>48</v>
       </c>
@@ -2584,7 +2609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>48</v>
       </c>
@@ -2595,7 +2620,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>48</v>
       </c>
@@ -2606,7 +2631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>48</v>
       </c>
@@ -2617,7 +2642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -2628,7 +2653,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -2639,8 +2664,41 @@
         <v>222</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>251</v>
+      </c>
+      <c r="B133" t="s">
+        <v>252</v>
+      </c>
+      <c r="C133" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>251</v>
+      </c>
+      <c r="B134" t="s">
+        <v>253</v>
+      </c>
+      <c r="C134" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>251</v>
+      </c>
+      <c r="B135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C135" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>7</v>
       </c>
     </row>

--- a/inventaire_exos.xlsx
+++ b/inventaire_exos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PESSOLES_LOCAL\GitHub\Informatique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5C9DC-08C6-4BE3-9514-E4AA076A6598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exos" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -807,7 +806,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1138,24 +1137,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>233</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>233</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>233</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>233</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>233</v>
       </c>
@@ -1366,7 +1365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>233</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -1388,7 +1387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -1399,7 +1398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>233</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>233</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>233</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>233</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>233</v>
       </c>
@@ -1501,7 +1500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -1512,7 +1511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>233</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>233</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>233</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>233</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>233</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>233</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>233</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>233</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>233</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>502.50299999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>233</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>233</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>234</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>234</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>234</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>234</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>234</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>234</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>234</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>234</v>
       </c>
@@ -1799,7 +1798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>234</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>234</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>234</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>235</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>235</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>235</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>235</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>235</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>235</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>235</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>235</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>232</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>232</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>238</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>238</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>238</v>
       </c>
@@ -2037,7 +2036,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>239</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>237</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>237</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>237</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>237</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>237</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>236</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>236</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>236</v>
       </c>
@@ -2191,7 +2190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>236</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>236</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>242</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>242</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>241</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>241</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>241</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>241</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>241</v>
       </c>
@@ -2290,7 +2289,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>241</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>240</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>240</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>240</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>240</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>240</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>240</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>243</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>243</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>243</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>243</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>243</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>243</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>244</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>244</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -2466,7 +2465,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>244</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -2488,7 +2487,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>244</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>244</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>245</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>245</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>245</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>48</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>48</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>48</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>48</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>48</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>48</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>251</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>251</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>251</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
